--- a/ExcelHO/Finanzen 2017_Test.xlsx
+++ b/ExcelHO/Finanzen 2017_Test.xlsx
@@ -43063,10 +43063,13 @@
         <v>29</v>
       </c>
       <c r="C8" s="102">
-        <f>Summe(C19,C41,C46,C47,C54,C55,C61,C62,C70,C81,C91,C94,C96,)</f>
+        <f>SUM(C19,C41,C46,C47,C54,C55,C61,C62,C70,C81,C91,C94,C96,)</f>
         <v/>
       </c>
-      <c r="D8" s="85" t="n"/>
+      <c r="D8" s="85">
+        <f>(C19+C41+C46+C47+C54+C55+C61+C62+C70+C81+C91+C94+C96+)</f>
+        <v/>
+      </c>
       <c r="E8" s="85" t="n"/>
       <c r="F8" s="85" t="n"/>
     </row>

--- a/ExcelHO/Finanzen 2017_Test.xlsx
+++ b/ExcelHO/Finanzen 2017_Test.xlsx
@@ -42933,8 +42933,8 @@
   <dimension ref="A1:Z149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A84" ySplit="14"/>
-      <selection activeCell="D86" pane="bottomLeft" sqref="D86"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A21" ySplit="14"/>
+      <selection activeCell="B22" pane="bottomLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="15.140625" defaultRowHeight="15" outlineLevelCol="0"/>

--- a/ExcelHO/Finanzen 2017_Test.xlsx
+++ b/ExcelHO/Finanzen 2017_Test.xlsx
@@ -1291,19 +1291,19 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31190,7 +31190,7 @@
       <c r="Z15" s="82" t="n"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="99" t="n">
+      <c r="A16" s="100" t="n">
         <v>42614</v>
       </c>
       <c r="B16" s="83" t="s">
@@ -31512,7 +31512,7 @@
       <c r="L25" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="98" spans="1:26">
-      <c r="A26" s="99" t="n">
+      <c r="A26" s="100" t="n">
         <v>42616</v>
       </c>
       <c r="B26" s="54" t="s">
@@ -31564,7 +31564,7 @@
       <c r="L27" s="44" t="n"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="99" t="n">
+      <c r="A28" s="100" t="n">
         <v>42618</v>
       </c>
       <c r="B28" s="83" t="s">
@@ -31728,7 +31728,7 @@
       <c r="L33" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="34" s="98" spans="1:26">
-      <c r="A34" s="103" t="n">
+      <c r="A34" s="102" t="n">
         <v>42620</v>
       </c>
       <c r="B34" s="41" t="n"/>
@@ -31810,7 +31810,7 @@
       <c r="L37" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="38" s="98" spans="1:26">
-      <c r="A38" s="103" t="n">
+      <c r="A38" s="102" t="n">
         <v>42622</v>
       </c>
       <c r="B38" s="54" t="s">
@@ -31864,7 +31864,7 @@
       <c r="L39" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="40" s="98" spans="1:26">
-      <c r="A40" s="103" t="n">
+      <c r="A40" s="102" t="n">
         <v>42624</v>
       </c>
       <c r="B40" s="41" t="n"/>
@@ -31894,7 +31894,7 @@
       <c r="Z40" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="41" s="98" spans="1:26">
-      <c r="A41" s="102" t="n">
+      <c r="A41" s="101" t="n">
         <v>42625</v>
       </c>
       <c r="C41" s="73" t="n"/>
@@ -31909,7 +31909,7 @@
       <c r="L41" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="42" s="98" spans="1:26">
-      <c r="A42" s="99" t="n">
+      <c r="A42" s="100" t="n">
         <v>42626</v>
       </c>
       <c r="B42" s="41" t="n"/>
@@ -32128,7 +32128,7 @@
       <c r="L50" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="51" s="98" spans="1:26">
-      <c r="A51" s="99" t="n">
+      <c r="A51" s="100" t="n">
         <v>42632</v>
       </c>
       <c r="B51" s="41" t="n"/>
@@ -32158,7 +32158,7 @@
       <c r="Z51" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="52" s="98" spans="1:26">
-      <c r="A52" s="102" t="n">
+      <c r="A52" s="101" t="n">
         <v>42633</v>
       </c>
       <c r="B52" s="41" t="n"/>
@@ -32178,7 +32178,7 @@
       <c r="L52" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="53" s="98" spans="1:26">
-      <c r="A53" s="103" t="n">
+      <c r="A53" s="102" t="n">
         <v>42634</v>
       </c>
       <c r="B53" s="41" t="n"/>
@@ -32208,7 +32208,7 @@
       <c r="Z53" s="55" t="n"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="102" t="n">
+      <c r="A54" s="101" t="n">
         <v>42635</v>
       </c>
       <c r="B54" s="41" t="n"/>
@@ -32237,7 +32237,7 @@
       <c r="L55" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="56" s="98" spans="1:26">
-      <c r="A56" s="99" t="n">
+      <c r="A56" s="100" t="n">
         <v>42636</v>
       </c>
       <c r="B56" s="54" t="s">
@@ -32285,7 +32285,7 @@
       <c r="L57" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="58" s="98" spans="1:26">
-      <c r="A58" s="99" t="n">
+      <c r="A58" s="100" t="n">
         <v>42638</v>
       </c>
       <c r="B58" s="41" t="n"/>
@@ -32331,7 +32331,7 @@
       <c r="L59" s="44" t="n"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="99" t="n">
+      <c r="A60" s="100" t="n">
         <v>42640</v>
       </c>
       <c r="B60" t="s">
@@ -32446,7 +32446,7 @@
       <c r="L63" s="44" t="n"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="99" t="n">
+      <c r="A64" s="100" t="n">
         <v>42642</v>
       </c>
       <c r="C64" s="52" t="n"/>
@@ -32880,7 +32880,7 @@
       <c r="Z15" s="82" t="n"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="99" t="n">
+      <c r="A16" s="100" t="n">
         <v>42644</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -33026,7 +33026,7 @@
       <c r="L20" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="21" s="98" spans="1:26">
-      <c r="A21" s="99" t="n">
+      <c r="A21" s="100" t="n">
         <v>42616</v>
       </c>
       <c r="B21" s="41" t="n"/>
@@ -33074,7 +33074,7 @@
       <c r="L22" s="44" t="n"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="99" t="n">
+      <c r="A23" s="100" t="n">
         <v>42618</v>
       </c>
       <c r="B23" s="54" t="s">
@@ -33222,7 +33222,7 @@
       <c r="L28" s="44" t="n"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="103" t="n">
+      <c r="A29" s="102" t="n">
         <v>42620</v>
       </c>
       <c r="B29" s="54" t="s">
@@ -33338,7 +33338,7 @@
       <c r="L32" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="98" spans="1:26">
-      <c r="A33" s="103" t="n">
+      <c r="A33" s="102" t="n">
         <v>42622</v>
       </c>
       <c r="B33" s="41" t="n"/>
@@ -33409,7 +33409,7 @@
       <c r="L35" s="44" t="n"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="103" t="n">
+      <c r="A36" s="102" t="n">
         <v>42624</v>
       </c>
       <c r="B36" s="54" t="s">
@@ -33474,7 +33474,7 @@
       <c r="Z37" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="38" s="98" spans="1:26">
-      <c r="A38" s="102" t="n">
+      <c r="A38" s="101" t="n">
         <v>42625</v>
       </c>
       <c r="B38" s="54" t="s">
@@ -33494,7 +33494,7 @@
       <c r="L38" s="44" t="n"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="99" t="n">
+      <c r="A39" s="100" t="n">
         <v>42626</v>
       </c>
       <c r="B39" s="54" t="s">
@@ -33893,7 +33893,7 @@
       <c r="L53" s="44" t="n"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="99" t="n">
+      <c r="A54" s="100" t="n">
         <v>42632</v>
       </c>
       <c r="B54" s="54" t="s">
@@ -33958,7 +33958,7 @@
       <c r="Z55" s="55" t="n"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="102" t="n">
+      <c r="A56" s="101" t="n">
         <v>42633</v>
       </c>
       <c r="B56" s="54" t="s">
@@ -34012,7 +34012,7 @@
       <c r="L58" s="44" t="n"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="103" t="n">
+      <c r="A59" s="102" t="n">
         <v>42634</v>
       </c>
       <c r="B59" s="41" t="s">
@@ -34077,7 +34077,7 @@
       <c r="Z60" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="61" s="98" spans="1:26">
-      <c r="A61" s="102" t="n">
+      <c r="A61" s="101" t="n">
         <v>42635</v>
       </c>
       <c r="B61" s="41" t="n"/>
@@ -34093,7 +34093,7 @@
       <c r="L61" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="62" s="98" spans="1:26">
-      <c r="A62" s="99" t="n">
+      <c r="A62" s="100" t="n">
         <v>42636</v>
       </c>
       <c r="B62" s="41" t="n"/>
@@ -34175,7 +34175,7 @@
       <c r="L65" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="66" s="98" spans="1:26">
-      <c r="A66" s="99" t="n">
+      <c r="A66" s="100" t="n">
         <v>42638</v>
       </c>
       <c r="B66" s="41" t="s">
@@ -34209,7 +34209,7 @@
       <c r="Z66" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="67" s="98" spans="1:26">
-      <c r="A67" s="99" t="n"/>
+      <c r="A67" s="100" t="n"/>
       <c r="B67" s="56" t="s">
         <v>92</v>
       </c>
@@ -34261,7 +34261,7 @@
       <c r="L68" s="44" t="n"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="99" t="n">
+      <c r="A69" s="100" t="n">
         <v>42640</v>
       </c>
       <c r="B69" s="70" t="s">
@@ -34441,7 +34441,7 @@
       <c r="L75" s="44" t="n"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="99" t="n">
+      <c r="A76" s="100" t="n">
         <v>42642</v>
       </c>
       <c r="B76" s="70" t="s">
@@ -34629,18 +34629,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="A82:A83"/>
@@ -34648,6 +34636,18 @@
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
 </worksheet>
@@ -34900,7 +34900,7 @@
       <c r="Z15" s="82" t="n"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="99" t="n">
+      <c r="A16" s="100" t="n">
         <v>42675</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -35082,7 +35082,7 @@
       <c r="L22" s="44" t="n"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="99" t="n">
+      <c r="A23" s="100" t="n">
         <v>42677</v>
       </c>
       <c r="B23" s="41" t="s">
@@ -35252,7 +35252,7 @@
       <c r="L28" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="29" s="98" spans="1:26">
-      <c r="A29" s="99" t="n">
+      <c r="A29" s="100" t="n">
         <v>42679</v>
       </c>
       <c r="B29" s="41" t="n"/>
@@ -35302,7 +35302,7 @@
       <c r="L30" s="44" t="n"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="103" t="n">
+      <c r="A31" s="102" t="n">
         <v>42681</v>
       </c>
       <c r="B31" s="41" t="s">
@@ -35404,7 +35404,7 @@
       <c r="L34" s="44" t="n"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="103" t="n">
+      <c r="A35" s="102" t="n">
         <v>42683</v>
       </c>
       <c r="B35" s="41" t="s">
@@ -35572,7 +35572,7 @@
       <c r="L40" s="44" t="n"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="103" t="n">
+      <c r="A41" s="102" t="n">
         <v>42685</v>
       </c>
       <c r="B41" s="41" t="s">
@@ -35668,7 +35668,7 @@
       <c r="Z43" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="44" s="98" spans="1:26">
-      <c r="A44" s="102" t="n">
+      <c r="A44" s="101" t="n">
         <v>42686</v>
       </c>
       <c r="B44" s="41" t="n"/>
@@ -35684,7 +35684,7 @@
       <c r="L44" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="45" s="98" spans="1:26">
-      <c r="A45" s="99" t="n">
+      <c r="A45" s="100" t="n">
         <v>42687</v>
       </c>
       <c r="B45" s="41" t="s">
@@ -36118,7 +36118,7 @@
       <c r="L62" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="63" s="98" spans="1:26">
-      <c r="A63" s="99" t="n">
+      <c r="A63" s="100" t="n">
         <v>42693</v>
       </c>
       <c r="B63" s="41" t="s">
@@ -36152,7 +36152,7 @@
       <c r="Z63" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="64" s="98" spans="1:26">
-      <c r="A64" s="102" t="n">
+      <c r="A64" s="101" t="n">
         <v>42694</v>
       </c>
       <c r="B64" s="41" t="s">
@@ -36172,7 +36172,7 @@
       <c r="L64" s="44" t="n"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="103" t="n">
+      <c r="A65" s="102" t="n">
         <v>42695</v>
       </c>
       <c r="B65" s="41" t="s">
@@ -36268,7 +36268,7 @@
       <c r="Z67" s="55" t="n"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="102" t="n">
+      <c r="A68" s="101" t="n">
         <v>42696</v>
       </c>
       <c r="B68" s="41" t="s">
@@ -36356,7 +36356,7 @@
       <c r="L72" s="44" t="n"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="99" t="n">
+      <c r="A73" s="100" t="n">
         <v>42697</v>
       </c>
       <c r="B73" s="41" t="s">
@@ -36512,7 +36512,7 @@
       <c r="L78" s="44" t="n"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="99" t="n">
+      <c r="A79" s="100" t="n">
         <v>42699</v>
       </c>
       <c r="B79" s="41" t="s">
@@ -36599,7 +36599,7 @@
       <c r="L81" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="82" s="98" spans="1:26">
-      <c r="A82" s="99" t="n">
+      <c r="A82" s="100" t="n">
         <v>42701</v>
       </c>
       <c r="C82" s="44" t="n"/>
@@ -36663,7 +36663,7 @@
       <c r="L84" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="85" s="98" spans="1:26">
-      <c r="A85" s="99" t="n">
+      <c r="A85" s="100" t="n">
         <v>42703</v>
       </c>
       <c r="B85" t="s">
@@ -36829,11 +36829,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A39:A40"/>
@@ -36844,13 +36846,11 @@
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A68:A72"/>
   </mergeCells>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
 </worksheet>
@@ -37102,7 +37102,7 @@
       <c r="Z15" s="82" t="n"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="99" t="n">
+      <c r="A16" s="100" t="n">
         <v>42644</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -37299,7 +37299,7 @@
       <c r="L23" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="98" spans="1:26">
-      <c r="A24" s="99" t="n">
+      <c r="A24" s="100" t="n">
         <v>42616</v>
       </c>
       <c r="B24" s="41" t="s">
@@ -37333,7 +37333,7 @@
       <c r="Z24" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="98" spans="1:26">
-      <c r="A25" s="99" t="n"/>
+      <c r="A25" s="100" t="n"/>
       <c r="B25" s="41" t="s">
         <v>255</v>
       </c>
@@ -37379,7 +37379,7 @@
       <c r="L26" s="44" t="n"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="99" t="n">
+      <c r="A27" s="100" t="n">
         <v>42618</v>
       </c>
       <c r="B27" s="41" t="s">
@@ -37517,7 +37517,7 @@
       <c r="L32" s="44" t="n"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="103" t="n">
+      <c r="A33" s="102" t="n">
         <v>42620</v>
       </c>
       <c r="B33" s="41" t="s">
@@ -37647,7 +37647,7 @@
       <c r="L37" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="38" s="98" spans="1:26">
-      <c r="A38" s="103" t="n">
+      <c r="A38" s="102" t="n">
         <v>42622</v>
       </c>
       <c r="B38" s="41" t="s">
@@ -37681,7 +37681,7 @@
       <c r="Z38" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="39" s="98" spans="1:26">
-      <c r="A39" s="103" t="n"/>
+      <c r="A39" s="102" t="n"/>
       <c r="B39" s="41" t="s">
         <v>92</v>
       </c>
@@ -37746,7 +37746,7 @@
       <c r="L41" s="44" t="n"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="103" t="n">
+      <c r="A42" s="102" t="n">
         <v>42624</v>
       </c>
       <c r="B42" s="41" t="s">
@@ -37807,7 +37807,7 @@
       <c r="Z43" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="44" s="98" spans="1:26">
-      <c r="A44" s="102" t="n">
+      <c r="A44" s="101" t="n">
         <v>42625</v>
       </c>
       <c r="B44" s="41" t="s">
@@ -37827,7 +37827,7 @@
       <c r="L44" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="45" s="98" spans="1:26">
-      <c r="A45" s="102" t="n"/>
+      <c r="A45" s="101" t="n"/>
       <c r="B45" s="41" t="s">
         <v>257</v>
       </c>
@@ -37845,7 +37845,7 @@
       <c r="L45" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="98" spans="1:26">
-      <c r="A46" s="102" t="n"/>
+      <c r="A46" s="101" t="n"/>
       <c r="B46" s="41" t="s">
         <v>93</v>
       </c>
@@ -37863,7 +37863,7 @@
       <c r="L46" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="47" s="98" spans="1:26">
-      <c r="A47" s="102" t="n"/>
+      <c r="A47" s="101" t="n"/>
       <c r="B47" s="41" t="s">
         <v>255</v>
       </c>
@@ -37881,7 +37881,7 @@
       <c r="L47" s="44" t="n"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="99" t="n">
+      <c r="A48" s="100" t="n">
         <v>42626</v>
       </c>
       <c r="B48" s="41" t="s">
@@ -37946,7 +37946,7 @@
       <c r="Z49" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="50" s="98" spans="1:26">
-      <c r="A50" s="99" t="n"/>
+      <c r="A50" s="100" t="n"/>
       <c r="B50" s="41" t="s">
         <v>258</v>
       </c>
@@ -38350,7 +38350,7 @@
       <c r="L66" s="44" t="n"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="99" t="n">
+      <c r="A67" s="100" t="n">
         <v>42632</v>
       </c>
       <c r="B67" s="41" t="s">
@@ -38411,7 +38411,7 @@
       <c r="Z68" s="55" t="n"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="102" t="n">
+      <c r="A69" s="101" t="n">
         <v>42633</v>
       </c>
       <c r="B69" s="41" t="s">
@@ -38465,7 +38465,7 @@
       <c r="L71" s="44" t="n"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="103" t="n">
+      <c r="A72" s="102" t="n">
         <v>42634</v>
       </c>
       <c r="B72" s="41" t="s">
@@ -38530,7 +38530,7 @@
       <c r="Z73" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="74" s="98" spans="1:26">
-      <c r="A74" s="103" t="n"/>
+      <c r="A74" s="102" t="n"/>
       <c r="B74" s="41" t="s">
         <v>92</v>
       </c>
@@ -38562,7 +38562,7 @@
       <c r="Z74" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="75" s="98" spans="1:26">
-      <c r="A75" s="102" t="n">
+      <c r="A75" s="101" t="n">
         <v>42635</v>
       </c>
       <c r="B75" s="41" t="s">
@@ -38582,7 +38582,7 @@
       <c r="L75" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="76" s="98" spans="1:26">
-      <c r="A76" s="102" t="n"/>
+      <c r="A76" s="101" t="n"/>
       <c r="B76" s="41" t="s">
         <v>265</v>
       </c>
@@ -38600,7 +38600,7 @@
       <c r="L76" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="77" s="98" spans="1:26">
-      <c r="A77" s="102" t="n"/>
+      <c r="A77" s="101" t="n"/>
       <c r="B77" s="41" t="s">
         <v>266</v>
       </c>
@@ -38618,7 +38618,7 @@
       <c r="L77" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="78" s="98" spans="1:26">
-      <c r="A78" s="102" t="n"/>
+      <c r="A78" s="101" t="n"/>
       <c r="B78" s="41" t="s">
         <v>267</v>
       </c>
@@ -38636,7 +38636,7 @@
       <c r="L78" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="79" s="98" spans="1:26">
-      <c r="A79" s="99" t="n">
+      <c r="A79" s="100" t="n">
         <v>42636</v>
       </c>
       <c r="B79" s="41" t="n"/>
@@ -38706,7 +38706,7 @@
       <c r="L82" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="83" s="98" spans="1:26">
-      <c r="A83" s="99" t="n">
+      <c r="A83" s="100" t="n">
         <v>42638</v>
       </c>
       <c r="B83" s="41" t="n"/>
@@ -38736,7 +38736,7 @@
       <c r="Z83" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="84" s="98" spans="1:26">
-      <c r="A84" s="99" t="n"/>
+      <c r="A84" s="100" t="n"/>
       <c r="B84" s="41" t="n"/>
       <c r="C84" s="52" t="n"/>
       <c r="D84" s="52" t="n"/>
@@ -38780,7 +38780,7 @@
       <c r="L85" s="44" t="n"/>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="99" t="n">
+      <c r="A86" s="100" t="n">
         <v>42640</v>
       </c>
       <c r="C86" s="52" t="n"/>
@@ -38947,7 +38947,7 @@
       <c r="L93" s="44" t="n"/>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="99" t="n">
+      <c r="A94" s="100" t="n">
         <v>42642</v>
       </c>
       <c r="C94" s="52" t="n"/>
@@ -39138,6 +39138,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A48:A49"/>
@@ -39145,18 +39157,6 @@
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A72:A73"/>
   </mergeCells>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
 </worksheet>
@@ -39310,17 +39310,17 @@
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="98" spans="1:26">
-      <c r="A19" s="100" t="n">
+      <c r="A19" s="103" t="n">
         <v>42370</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="20" s="98" spans="1:26">
-      <c r="A20" s="100" t="n">
+      <c r="A20" s="103" t="n">
         <v>42371</v>
       </c>
     </row>
     <row customHeight="1" ht="27.75" r="21" s="98" spans="1:26">
-      <c r="A21" s="100" t="n">
+      <c r="A21" s="103" t="n">
         <v>42372</v>
       </c>
       <c r="B21" s="45" t="n"/>
@@ -39328,139 +39328,139 @@
       <c r="D21" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="98" spans="1:26">
-      <c r="A22" s="100" t="n"/>
+      <c r="A22" s="103" t="n"/>
       <c r="B22" s="45" t="n"/>
       <c r="C22" s="14" t="n"/>
       <c r="D22" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="98" spans="1:26">
-      <c r="A23" s="100" t="n">
+      <c r="A23" s="103" t="n">
         <v>42373</v>
       </c>
       <c r="C23" s="14" t="n"/>
       <c r="D23" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="98" spans="1:26">
-      <c r="A24" s="100" t="n">
+      <c r="A24" s="103" t="n">
         <v>42374</v>
       </c>
       <c r="C24" s="14" t="n"/>
       <c r="D24" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="98" spans="1:26">
-      <c r="A25" s="100" t="n">
+      <c r="A25" s="103" t="n">
         <v>42375</v>
       </c>
       <c r="C25" s="14" t="n"/>
       <c r="D25" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="98" spans="1:26">
-      <c r="A26" s="100" t="n">
+      <c r="A26" s="103" t="n">
         <v>42376</v>
       </c>
       <c r="C26" s="14" t="n"/>
       <c r="D26" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="98" spans="1:26">
-      <c r="A27" s="100" t="n">
+      <c r="A27" s="103" t="n">
         <v>42377</v>
       </c>
       <c r="C27" s="14" t="n"/>
       <c r="D27" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="98" spans="1:26">
-      <c r="A28" s="100" t="n">
+      <c r="A28" s="103" t="n">
         <v>42378</v>
       </c>
       <c r="C28" s="14" t="n"/>
       <c r="D28" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="29" s="98" spans="1:26">
-      <c r="A29" s="100" t="n">
+      <c r="A29" s="103" t="n">
         <v>42379</v>
       </c>
       <c r="C29" s="14" t="n"/>
       <c r="D29" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="30" s="98" spans="1:26">
-      <c r="A30" s="100" t="n">
+      <c r="A30" s="103" t="n">
         <v>42380</v>
       </c>
       <c r="C30" s="14" t="n"/>
       <c r="D30" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="31" s="98" spans="1:26">
-      <c r="A31" s="100" t="n">
+      <c r="A31" s="103" t="n">
         <v>42381</v>
       </c>
       <c r="C31" s="14" t="n"/>
       <c r="D31" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="32" s="98" spans="1:26">
-      <c r="A32" s="100" t="n">
+      <c r="A32" s="103" t="n">
         <v>42382</v>
       </c>
       <c r="C32" s="14" t="n"/>
       <c r="D32" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="98" spans="1:26">
-      <c r="A33" s="100" t="n">
+      <c r="A33" s="103" t="n">
         <v>42383</v>
       </c>
       <c r="C33" s="14" t="n"/>
       <c r="D33" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="34" s="98" spans="1:26">
-      <c r="A34" s="100" t="n">
+      <c r="A34" s="103" t="n">
         <v>42384</v>
       </c>
       <c r="C34" s="14" t="n"/>
       <c r="D34" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="35" s="98" spans="1:26">
-      <c r="A35" s="100" t="n">
+      <c r="A35" s="103" t="n">
         <v>42385</v>
       </c>
       <c r="C35" s="14" t="n"/>
       <c r="D35" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="36" s="98" spans="1:26">
-      <c r="A36" s="100" t="n">
+      <c r="A36" s="103" t="n">
         <v>42386</v>
       </c>
       <c r="C36" s="14" t="n"/>
       <c r="D36" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="37" s="98" spans="1:26">
-      <c r="A37" s="100" t="n">
+      <c r="A37" s="103" t="n">
         <v>42387</v>
       </c>
       <c r="C37" s="14" t="n"/>
       <c r="D37" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="38" s="98" spans="1:26">
-      <c r="A38" s="100" t="n">
+      <c r="A38" s="103" t="n">
         <v>42388</v>
       </c>
       <c r="C38" s="14" t="n"/>
       <c r="D38" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="39" s="98" spans="1:26">
-      <c r="A39" s="100" t="n">
+      <c r="A39" s="103" t="n">
         <v>42389</v>
       </c>
       <c r="C39" s="14" t="n"/>
       <c r="D39" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="40" s="98" spans="1:26">
-      <c r="A40" s="100" t="n">
+      <c r="A40" s="103" t="n">
         <v>42390</v>
       </c>
       <c r="C40" s="14" t="n"/>
       <c r="D40" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="41" s="98" spans="1:26">
-      <c r="A41" s="100" t="n">
+      <c r="A41" s="103" t="n">
         <v>42391</v>
       </c>
       <c r="B41" s="45" t="n"/>
@@ -39468,71 +39468,71 @@
       <c r="D41" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="42" s="98" spans="1:26">
-      <c r="A42" s="100" t="n"/>
+      <c r="A42" s="103" t="n"/>
       <c r="B42" s="45" t="n"/>
       <c r="C42" s="14" t="n"/>
       <c r="D42" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="43" s="98" spans="1:26">
-      <c r="A43" s="100" t="n"/>
+      <c r="A43" s="103" t="n"/>
       <c r="B43" s="45" t="n"/>
       <c r="C43" s="14" t="n"/>
       <c r="D43" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="44" s="98" spans="1:26">
-      <c r="A44" s="100" t="n">
+      <c r="A44" s="103" t="n">
         <v>42392</v>
       </c>
       <c r="C44" s="14" t="n"/>
       <c r="D44" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="45" s="98" spans="1:26">
-      <c r="A45" s="100" t="n">
+      <c r="A45" s="103" t="n">
         <v>42393</v>
       </c>
       <c r="C45" s="14" t="n"/>
       <c r="D45" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="98" spans="1:26">
-      <c r="A46" s="100" t="n">
+      <c r="A46" s="103" t="n">
         <v>42394</v>
       </c>
       <c r="C46" s="14" t="n"/>
       <c r="D46" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="47" s="98" spans="1:26">
-      <c r="A47" s="100" t="n">
+      <c r="A47" s="103" t="n">
         <v>42395</v>
       </c>
       <c r="C47" s="14" t="n"/>
       <c r="D47" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="48" s="98" spans="1:26">
-      <c r="A48" s="100" t="n">
+      <c r="A48" s="103" t="n">
         <v>42396</v>
       </c>
       <c r="C48" s="14" t="n"/>
       <c r="D48" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="49" s="98" spans="1:26">
-      <c r="A49" s="100" t="n">
+      <c r="A49" s="103" t="n">
         <v>42397</v>
       </c>
       <c r="C49" s="14" t="n"/>
       <c r="D49" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="50" s="98" spans="1:26">
-      <c r="A50" s="100" t="n">
+      <c r="A50" s="103" t="n">
         <v>42398</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="51" s="98" spans="1:26">
-      <c r="A51" s="100" t="n">
+      <c r="A51" s="103" t="n">
         <v>42399</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="52" s="98" spans="1:26">
-      <c r="A52" s="100" t="n">
+      <c r="A52" s="103" t="n">
         <v>42400</v>
       </c>
     </row>
@@ -39698,171 +39698,171 @@
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="98" spans="1:26">
-      <c r="A19" s="100" t="n">
+      <c r="A19" s="103" t="n">
         <v>42401</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="20" s="98" spans="1:26">
-      <c r="A20" s="100" t="n">
+      <c r="A20" s="103" t="n">
         <v>42402</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="21" s="98" spans="1:26">
-      <c r="A21" s="100" t="n">
+      <c r="A21" s="103" t="n">
         <v>42403</v>
       </c>
       <c r="B21" s="45" t="n"/>
       <c r="C21" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="98" spans="1:26">
-      <c r="A22" s="100" t="n"/>
+      <c r="A22" s="103" t="n"/>
       <c r="B22" s="45" t="n"/>
       <c r="C22" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="98" spans="1:26">
-      <c r="A23" s="100" t="n">
+      <c r="A23" s="103" t="n">
         <v>42404</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="98" spans="1:26">
-      <c r="A24" s="100" t="n">
+      <c r="A24" s="103" t="n">
         <v>42405</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="98" spans="1:26">
-      <c r="A25" s="100" t="n">
+      <c r="A25" s="103" t="n">
         <v>42406</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="98" spans="1:26">
-      <c r="A26" s="100" t="n">
+      <c r="A26" s="103" t="n">
         <v>42407</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="98" spans="1:26">
-      <c r="A27" s="100" t="n">
+      <c r="A27" s="103" t="n">
         <v>42408</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="98" spans="1:26">
-      <c r="A28" s="100" t="n">
+      <c r="A28" s="103" t="n">
         <v>42409</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="29" s="98" spans="1:26">
-      <c r="A29" s="100" t="n">
+      <c r="A29" s="103" t="n">
         <v>42410</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="30" s="98" spans="1:26">
-      <c r="A30" s="100" t="n">
+      <c r="A30" s="103" t="n">
         <v>42411</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="31" s="98" spans="1:26">
-      <c r="A31" s="100" t="n">
+      <c r="A31" s="103" t="n">
         <v>42412</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="32" s="98" spans="1:26">
-      <c r="A32" s="100" t="n">
+      <c r="A32" s="103" t="n">
         <v>42413</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="98" spans="1:26">
-      <c r="A33" s="100" t="n">
+      <c r="A33" s="103" t="n">
         <v>42414</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="34" s="98" spans="1:26">
-      <c r="A34" s="100" t="n">
+      <c r="A34" s="103" t="n">
         <v>42415</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="35" s="98" spans="1:26">
-      <c r="A35" s="100" t="n">
+      <c r="A35" s="103" t="n">
         <v>42416</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="36" s="98" spans="1:26">
-      <c r="A36" s="100" t="n">
+      <c r="A36" s="103" t="n">
         <v>42417</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="37" s="98" spans="1:26">
-      <c r="A37" s="100" t="n">
+      <c r="A37" s="103" t="n">
         <v>42418</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="38" s="98" spans="1:26">
-      <c r="A38" s="100" t="n">
+      <c r="A38" s="103" t="n">
         <v>42419</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="39" s="98" spans="1:26">
-      <c r="A39" s="100" t="n">
+      <c r="A39" s="103" t="n">
         <v>42420</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="40" s="98" spans="1:26">
-      <c r="A40" s="100" t="n">
+      <c r="A40" s="103" t="n">
         <v>42421</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="41" s="98" spans="1:26">
-      <c r="A41" s="100" t="n">
+      <c r="A41" s="103" t="n">
         <v>42422</v>
       </c>
       <c r="B41" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="42" s="98" spans="1:26">
-      <c r="A42" s="100" t="n"/>
+      <c r="A42" s="103" t="n"/>
       <c r="B42" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="43" s="98" spans="1:26">
-      <c r="A43" s="100" t="n"/>
+      <c r="A43" s="103" t="n"/>
       <c r="B43" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="44" s="98" spans="1:26">
-      <c r="A44" s="100" t="n">
+      <c r="A44" s="103" t="n">
         <v>42423</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="45" s="98" spans="1:26">
-      <c r="A45" s="100" t="n">
+      <c r="A45" s="103" t="n">
         <v>42424</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="98" spans="1:26">
-      <c r="A46" s="100" t="n">
+      <c r="A46" s="103" t="n">
         <v>42425</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="47" s="98" spans="1:26">
-      <c r="A47" s="100" t="n">
+      <c r="A47" s="103" t="n">
         <v>42426</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="48" s="98" spans="1:26">
-      <c r="A48" s="100" t="n">
+      <c r="A48" s="103" t="n">
         <v>42427</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="49" s="98" spans="1:26">
-      <c r="A49" s="100" t="n">
+      <c r="A49" s="103" t="n">
         <v>42428</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="50" s="98" spans="1:26">
-      <c r="A50" s="100" t="n">
+      <c r="A50" s="103" t="n">
         <v>42429</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="51" s="98" spans="1:26">
-      <c r="A51" s="100" t="n"/>
+      <c r="A51" s="103" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="52" s="98" spans="1:26">
-      <c r="A52" s="100" t="n"/>
+      <c r="A52" s="103" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
@@ -40072,7 +40072,7 @@
       <c r="D20" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="21" s="98" spans="1:26">
-      <c r="A21" s="100" t="n">
+      <c r="A21" s="103" t="n">
         <v>42431</v>
       </c>
       <c r="B21" t="s">
@@ -40084,7 +40084,7 @@
       <c r="D21" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="98" spans="1:26">
-      <c r="A22" s="100" t="n">
+      <c r="A22" s="103" t="n">
         <v>42432</v>
       </c>
       <c r="B22" s="45" t="n"/>
@@ -40092,13 +40092,13 @@
       <c r="D22" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="98" spans="1:26">
-      <c r="A23" s="100" t="n"/>
+      <c r="A23" s="103" t="n"/>
       <c r="B23" s="45" t="n"/>
       <c r="C23" s="14" t="n"/>
       <c r="D23" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="98" spans="1:26">
-      <c r="A24" s="100" t="n">
+      <c r="A24" s="103" t="n">
         <v>42433</v>
       </c>
       <c r="B24" t="s">
@@ -40110,7 +40110,7 @@
       <c r="D24" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="98" spans="1:26">
-      <c r="A25" s="100" t="n">
+      <c r="A25" s="103" t="n">
         <v>42434</v>
       </c>
       <c r="B25" t="s">
@@ -40122,21 +40122,21 @@
       <c r="D25" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="98" spans="1:26">
-      <c r="A26" s="100" t="n">
+      <c r="A26" s="103" t="n">
         <v>42435</v>
       </c>
       <c r="C26" s="14" t="n"/>
       <c r="D26" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="98" spans="1:26">
-      <c r="A27" s="100" t="n">
+      <c r="A27" s="103" t="n">
         <v>42436</v>
       </c>
       <c r="C27" s="14" t="n"/>
       <c r="D27" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="98" spans="1:26">
-      <c r="A28" s="100" t="n">
+      <c r="A28" s="103" t="n">
         <v>42437</v>
       </c>
       <c r="B28" t="s">
@@ -40148,14 +40148,14 @@
       <c r="D28" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="29" s="98" spans="1:26">
-      <c r="A29" s="100" t="n">
+      <c r="A29" s="103" t="n">
         <v>42438</v>
       </c>
       <c r="C29" s="14" t="n"/>
       <c r="D29" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="30" s="98" spans="1:26">
-      <c r="A30" s="100" t="n">
+      <c r="A30" s="103" t="n">
         <v>42439</v>
       </c>
       <c r="B30" t="s">
@@ -40167,7 +40167,7 @@
       <c r="D30" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="31" s="98" spans="1:26">
-      <c r="A31" s="100" t="n">
+      <c r="A31" s="103" t="n">
         <v>42440</v>
       </c>
       <c r="B31" t="s">
@@ -40179,56 +40179,56 @@
       <c r="D31" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="32" s="98" spans="1:26">
-      <c r="A32" s="100" t="n">
+      <c r="A32" s="103" t="n">
         <v>42441</v>
       </c>
       <c r="C32" s="14" t="n"/>
       <c r="D32" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="98" spans="1:26">
-      <c r="A33" s="100" t="n">
+      <c r="A33" s="103" t="n">
         <v>42442</v>
       </c>
       <c r="C33" s="14" t="n"/>
       <c r="D33" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="34" s="98" spans="1:26">
-      <c r="A34" s="100" t="n">
+      <c r="A34" s="103" t="n">
         <v>42443</v>
       </c>
       <c r="C34" s="14" t="n"/>
       <c r="D34" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="35" s="98" spans="1:26">
-      <c r="A35" s="100" t="n">
+      <c r="A35" s="103" t="n">
         <v>42444</v>
       </c>
       <c r="C35" s="14" t="n"/>
       <c r="D35" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="36" s="98" spans="1:26">
-      <c r="A36" s="100" t="n">
+      <c r="A36" s="103" t="n">
         <v>42445</v>
       </c>
       <c r="C36" s="14" t="n"/>
       <c r="D36" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="37" s="98" spans="1:26">
-      <c r="A37" s="100" t="n">
+      <c r="A37" s="103" t="n">
         <v>42446</v>
       </c>
       <c r="C37" s="14" t="n"/>
       <c r="D37" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="38" s="98" spans="1:26">
-      <c r="A38" s="100" t="n">
+      <c r="A38" s="103" t="n">
         <v>42447</v>
       </c>
       <c r="C38" s="14" t="n"/>
       <c r="D38" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="39" s="98" spans="1:26">
-      <c r="A39" s="100" t="n">
+      <c r="A39" s="103" t="n">
         <v>42448</v>
       </c>
       <c r="B39" t="s">
@@ -40240,21 +40240,21 @@
       <c r="D39" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="40" s="98" spans="1:26">
-      <c r="A40" s="100" t="n">
+      <c r="A40" s="103" t="n">
         <v>42449</v>
       </c>
       <c r="C40" s="14" t="n"/>
       <c r="D40" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="41" s="98" spans="1:26">
-      <c r="A41" s="100" t="n">
+      <c r="A41" s="103" t="n">
         <v>42450</v>
       </c>
       <c r="C41" s="14" t="n"/>
       <c r="D41" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="42" s="98" spans="1:26">
-      <c r="A42" s="100" t="n">
+      <c r="A42" s="103" t="n">
         <v>42451</v>
       </c>
       <c r="B42" s="45" t="n"/>
@@ -40262,55 +40262,55 @@
       <c r="D42" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="43" s="98" spans="1:26">
-      <c r="A43" s="100" t="n"/>
+      <c r="A43" s="103" t="n"/>
       <c r="B43" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="44" s="98" spans="1:26">
-      <c r="A44" s="100" t="n"/>
+      <c r="A44" s="103" t="n"/>
       <c r="B44" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="45" s="98" spans="1:26">
-      <c r="A45" s="100" t="n">
+      <c r="A45" s="103" t="n">
         <v>42452</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="98" spans="1:26">
-      <c r="A46" s="100" t="n">
+      <c r="A46" s="103" t="n">
         <v>42453</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="47" s="98" spans="1:26">
-      <c r="A47" s="100" t="n">
+      <c r="A47" s="103" t="n">
         <v>42454</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="48" s="98" spans="1:26">
-      <c r="A48" s="100" t="n">
+      <c r="A48" s="103" t="n">
         <v>42455</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="49" s="98" spans="1:26">
-      <c r="A49" s="100" t="n">
+      <c r="A49" s="103" t="n">
         <v>42456</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="50" s="98" spans="1:26">
-      <c r="A50" s="100" t="n">
+      <c r="A50" s="103" t="n">
         <v>42457</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="51" s="98" spans="1:26">
-      <c r="A51" s="100" t="n">
+      <c r="A51" s="103" t="n">
         <v>42458</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="52" s="98" spans="1:26">
-      <c r="A52" s="100" t="n">
+      <c r="A52" s="103" t="n">
         <v>42459</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="53" s="98" spans="1:26">
-      <c r="A53" s="100" t="n">
+      <c r="A53" s="103" t="n">
         <v>42460</v>
       </c>
     </row>
@@ -40517,7 +40517,7 @@
       <c r="C18" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="14.25" r="19" s="98" spans="1:26">
-      <c r="A19" s="100" t="n">
+      <c r="A19" s="103" t="n">
         <v>42826</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -40530,7 +40530,7 @@
       <c r="E19" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="14.25" r="20" s="98" spans="1:26">
-      <c r="A20" s="100" t="n"/>
+      <c r="A20" s="103" t="n"/>
       <c r="B20" s="43" t="s">
         <v>40</v>
       </c>
@@ -40541,7 +40541,7 @@
       <c r="E20" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="14.25" r="21" s="98" spans="1:26">
-      <c r="A21" s="100" t="n"/>
+      <c r="A21" s="103" t="n"/>
       <c r="B21" s="43" t="s">
         <v>41</v>
       </c>
@@ -40552,7 +40552,7 @@
       <c r="E21" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="14.25" r="22" s="98" spans="1:26">
-      <c r="A22" s="100" t="n"/>
+      <c r="A22" s="103" t="n"/>
       <c r="B22" s="43" t="s">
         <v>42</v>
       </c>
@@ -40563,7 +40563,7 @@
       <c r="E22" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="98" spans="1:26">
-      <c r="A23" s="100" t="n">
+      <c r="A23" s="103" t="n">
         <v>42827</v>
       </c>
       <c r="B23" s="41" t="s">
@@ -40581,7 +40581,7 @@
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="98" spans="1:26">
-      <c r="A24" s="100" t="n">
+      <c r="A24" s="103" t="n">
         <v>42828</v>
       </c>
       <c r="B24" s="42" t="s">
@@ -40599,7 +40599,7 @@
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="98" spans="1:26">
-      <c r="A25" s="100" t="n"/>
+      <c r="A25" s="103" t="n"/>
       <c r="B25" s="42" t="s">
         <v>46</v>
       </c>
@@ -40645,7 +40645,7 @@
       <c r="E28" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="29" s="98" spans="1:26">
-      <c r="A29" s="100" t="n">
+      <c r="A29" s="103" t="n">
         <v>42830</v>
       </c>
       <c r="B29" s="43" t="n"/>
@@ -40789,7 +40789,7 @@
       <c r="E42" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="43" s="98" spans="1:26">
-      <c r="A43" s="100" t="n">
+      <c r="A43" s="103" t="n">
         <v>42835</v>
       </c>
       <c r="B43" s="43" t="s">
@@ -40802,7 +40802,7 @@
       <c r="E43" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="44" s="98" spans="1:26">
-      <c r="A44" s="100" t="n"/>
+      <c r="A44" s="103" t="n"/>
       <c r="B44" s="43" t="s">
         <v>56</v>
       </c>
@@ -40813,7 +40813,7 @@
       <c r="E44" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="45" s="98" spans="1:26">
-      <c r="A45" s="100" t="n"/>
+      <c r="A45" s="103" t="n"/>
       <c r="B45" s="43" t="s">
         <v>40</v>
       </c>
@@ -40824,7 +40824,7 @@
       <c r="E45" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="98" spans="1:26">
-      <c r="A46" s="100" t="n"/>
+      <c r="A46" s="103" t="n"/>
       <c r="B46" s="43" t="s">
         <v>57</v>
       </c>
@@ -40893,7 +40893,7 @@
       <c r="E52" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="53" s="98" spans="1:26">
-      <c r="A53" s="100" t="n">
+      <c r="A53" s="103" t="n">
         <v>42838</v>
       </c>
       <c r="B53" s="43" t="s">
@@ -40906,7 +40906,7 @@
       <c r="E53" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="54" s="98" spans="1:26">
-      <c r="A54" s="100" t="n"/>
+      <c r="A54" s="103" t="n"/>
       <c r="B54" s="43" t="s">
         <v>59</v>
       </c>
@@ -40917,7 +40917,7 @@
       <c r="E54" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="55" s="98" spans="1:26">
-      <c r="A55" s="100" t="n">
+      <c r="A55" s="103" t="n">
         <v>42839</v>
       </c>
       <c r="B55" s="43" t="n"/>
@@ -40926,7 +40926,7 @@
       <c r="E55" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="56" s="98" spans="1:26">
-      <c r="A56" s="100" t="n">
+      <c r="A56" s="103" t="n">
         <v>42840</v>
       </c>
       <c r="B56" s="43" t="s">
@@ -40939,7 +40939,7 @@
       <c r="E56" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="57" s="98" spans="1:26">
-      <c r="A57" s="100" t="n"/>
+      <c r="A57" s="103" t="n"/>
       <c r="B57" s="43" t="s">
         <v>61</v>
       </c>
@@ -40950,7 +40950,7 @@
       <c r="E57" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="58" s="98" spans="1:26">
-      <c r="A58" s="100" t="n"/>
+      <c r="A58" s="103" t="n"/>
       <c r="B58" s="43" t="s">
         <v>62</v>
       </c>
@@ -40961,7 +40961,7 @@
       <c r="E58" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="59" s="98" spans="1:26">
-      <c r="A59" s="100" t="n">
+      <c r="A59" s="103" t="n">
         <v>42841</v>
       </c>
       <c r="B59" s="43" t="n"/>
@@ -40970,7 +40970,7 @@
       <c r="E59" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="60" s="98" spans="1:26">
-      <c r="A60" s="100" t="n">
+      <c r="A60" s="103" t="n">
         <v>42842</v>
       </c>
       <c r="B60" s="43" t="n"/>
@@ -40980,7 +40980,7 @@
       <c r="F60" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="61" s="98" spans="1:26">
-      <c r="A61" s="100" t="n">
+      <c r="A61" s="103" t="n">
         <v>42843</v>
       </c>
       <c r="B61" s="43" t="s">
@@ -40993,7 +40993,7 @@
       <c r="E61" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="62" s="98" spans="1:26">
-      <c r="A62" s="100" t="n"/>
+      <c r="A62" s="103" t="n"/>
       <c r="B62" s="43" t="s">
         <v>47</v>
       </c>
@@ -41004,7 +41004,7 @@
       <c r="E62" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="63" s="98" spans="1:26">
-      <c r="A63" s="100" t="n">
+      <c r="A63" s="103" t="n">
         <v>42844</v>
       </c>
       <c r="B63" s="43" t="s">
@@ -41017,7 +41017,7 @@
       <c r="E63" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="64" s="98" spans="1:26">
-      <c r="A64" s="100" t="n"/>
+      <c r="A64" s="103" t="n"/>
       <c r="B64" s="43" t="s">
         <v>63</v>
       </c>
@@ -41127,7 +41127,7 @@
       <c r="E74" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="75" s="98" spans="1:26">
-      <c r="A75" s="100" t="n">
+      <c r="A75" s="103" t="n">
         <v>42848</v>
       </c>
       <c r="B75" s="43" t="s">
@@ -41140,7 +41140,7 @@
       <c r="E75" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="76" s="98" spans="1:26">
-      <c r="A76" s="100" t="n">
+      <c r="A76" s="103" t="n">
         <v>42849</v>
       </c>
       <c r="B76" s="43" t="s">
@@ -41153,7 +41153,7 @@
       <c r="E76" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="77" s="98" spans="1:26">
-      <c r="A77" s="100" t="n">
+      <c r="A77" s="103" t="n">
         <v>42850</v>
       </c>
       <c r="B77" s="43" t="s">
@@ -41166,7 +41166,7 @@
       <c r="E77" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="78" s="98" spans="1:26">
-      <c r="A78" s="100" t="n"/>
+      <c r="A78" s="103" t="n"/>
       <c r="B78" s="43" t="s">
         <v>47</v>
       </c>
@@ -41177,7 +41177,7 @@
       <c r="E78" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="79" s="98" spans="1:26">
-      <c r="A79" s="100" t="n">
+      <c r="A79" s="103" t="n">
         <v>42851</v>
       </c>
       <c r="B79" s="43" t="s">
@@ -41190,7 +41190,7 @@
       <c r="E79" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="80" s="98" spans="1:26">
-      <c r="A80" s="100" t="n"/>
+      <c r="A80" s="103" t="n"/>
       <c r="B80" s="43" t="s">
         <v>70</v>
       </c>
@@ -41201,7 +41201,7 @@
       <c r="E80" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="81" s="98" spans="1:26">
-      <c r="A81" s="100" t="n">
+      <c r="A81" s="103" t="n">
         <v>42852</v>
       </c>
       <c r="B81" s="43" t="s">
@@ -41214,7 +41214,7 @@
       <c r="E81" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="82" s="98" spans="1:26">
-      <c r="A82" s="100" t="n"/>
+      <c r="A82" s="103" t="n"/>
       <c r="B82" s="43" t="s">
         <v>71</v>
       </c>
@@ -41225,7 +41225,7 @@
       <c r="E82" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="83" s="98" spans="1:26">
-      <c r="A83" s="100" t="n"/>
+      <c r="A83" s="103" t="n"/>
       <c r="B83" s="43" t="s">
         <v>72</v>
       </c>
@@ -41236,7 +41236,7 @@
       <c r="E83" s="43" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="84" s="98" spans="1:26">
-      <c r="A84" s="100" t="n"/>
+      <c r="A84" s="103" t="n"/>
       <c r="B84" s="43" t="s">
         <v>73</v>
       </c>
@@ -41267,7 +41267,7 @@
       <c r="F86" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="87" s="98" spans="1:26">
-      <c r="A87" s="100" t="n">
+      <c r="A87" s="103" t="n">
         <v>42854</v>
       </c>
       <c r="B87" s="43" t="s">
@@ -41281,7 +41281,7 @@
       <c r="F87" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="88" s="98" spans="1:26">
-      <c r="A88" s="100" t="n"/>
+      <c r="A88" s="103" t="n"/>
       <c r="B88" s="43" t="s">
         <v>42</v>
       </c>
@@ -41293,7 +41293,7 @@
       <c r="F88" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="89" s="98" spans="1:26">
-      <c r="A89" s="100" t="n">
+      <c r="A89" s="103" t="n">
         <v>42855</v>
       </c>
       <c r="B89" s="43" t="s">
@@ -41612,7 +41612,7 @@
       <c r="F21" s="47" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="98" spans="1:26">
-      <c r="A22" s="100" t="n">
+      <c r="A22" s="103" t="n">
         <v>42856</v>
       </c>
       <c r="C22" s="47" t="n"/>
@@ -41720,7 +41720,7 @@
       <c r="L28" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="29" s="98" spans="1:26">
-      <c r="A29" s="100" t="n">
+      <c r="A29" s="103" t="n">
         <v>42858</v>
       </c>
       <c r="B29" s="45" t="s">
@@ -41740,7 +41740,7 @@
       <c r="L29" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="30" s="98" spans="1:26">
-      <c r="A30" s="100" t="n"/>
+      <c r="A30" s="103" t="n"/>
       <c r="B30" s="45" t="s">
         <v>84</v>
       </c>
@@ -41758,7 +41758,7 @@
       <c r="L30" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="31" s="98" spans="1:26">
-      <c r="A31" s="100" t="n"/>
+      <c r="A31" s="103" t="n"/>
       <c r="B31" s="45" t="s">
         <v>85</v>
       </c>
@@ -41813,7 +41813,7 @@
       <c r="L33" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="34" s="98" spans="1:26">
-      <c r="A34" s="100" t="n">
+      <c r="A34" s="103" t="n">
         <v>-632839</v>
       </c>
       <c r="B34" t="s">
@@ -41833,7 +41833,7 @@
       <c r="L34" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="35" s="98" spans="1:26">
-      <c r="A35" s="100" t="n"/>
+      <c r="A35" s="103" t="n"/>
       <c r="B35" t="s">
         <v>65</v>
       </c>
@@ -41902,7 +41902,7 @@
       <c r="L39" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="40" s="98" spans="1:26">
-      <c r="A40" s="102" t="n">
+      <c r="A40" s="101" t="n">
         <v>42862</v>
       </c>
       <c r="C40" s="44" t="n"/>
@@ -41917,7 +41917,7 @@
       <c r="L40" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="41" s="98" spans="1:26">
-      <c r="A41" s="102" t="n">
+      <c r="A41" s="101" t="n">
         <v>42863</v>
       </c>
       <c r="B41" t="s">
@@ -41937,7 +41937,7 @@
       <c r="L41" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="42" s="98" spans="1:26">
-      <c r="A42" s="102" t="n"/>
+      <c r="A42" s="101" t="n"/>
       <c r="B42" t="s">
         <v>85</v>
       </c>
@@ -41955,7 +41955,7 @@
       <c r="L42" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="43" s="98" spans="1:26">
-      <c r="A43" s="102" t="n"/>
+      <c r="A43" s="101" t="n"/>
       <c r="B43" t="s">
         <v>42</v>
       </c>
@@ -41973,7 +41973,7 @@
       <c r="L43" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="44" s="98" spans="1:26">
-      <c r="A44" s="102" t="n">
+      <c r="A44" s="101" t="n">
         <v>42864</v>
       </c>
       <c r="B44" t="s">
@@ -41993,7 +41993,7 @@
       <c r="L44" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="45" s="98" spans="1:26">
-      <c r="A45" s="102" t="n"/>
+      <c r="A45" s="101" t="n"/>
       <c r="B45" t="s">
         <v>87</v>
       </c>
@@ -42011,7 +42011,7 @@
       <c r="L45" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="98" spans="1:26">
-      <c r="A46" s="102" t="n"/>
+      <c r="A46" s="101" t="n"/>
       <c r="B46" t="s">
         <v>68</v>
       </c>
@@ -42029,7 +42029,7 @@
       <c r="L46" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="47" s="98" spans="1:26">
-      <c r="A47" s="100" t="n">
+      <c r="A47" s="103" t="n">
         <v>42865</v>
       </c>
       <c r="B47" t="s">
@@ -42049,7 +42049,7 @@
       <c r="L47" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="48" s="98" spans="1:26">
-      <c r="A48" s="100" t="n"/>
+      <c r="A48" s="103" t="n"/>
       <c r="B48" t="s">
         <v>47</v>
       </c>
@@ -42067,7 +42067,7 @@
       <c r="L48" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="49" s="98" spans="1:26">
-      <c r="A49" s="102" t="n">
+      <c r="A49" s="101" t="n">
         <v>42866</v>
       </c>
       <c r="B49" t="s">
@@ -42087,7 +42087,7 @@
       <c r="L49" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="50" s="98" spans="1:26">
-      <c r="A50" s="102" t="n"/>
+      <c r="A50" s="101" t="n"/>
       <c r="B50" t="s">
         <v>88</v>
       </c>
@@ -42105,7 +42105,7 @@
       <c r="L50" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="51" s="98" spans="1:26">
-      <c r="A51" s="102" t="n"/>
+      <c r="A51" s="101" t="n"/>
       <c r="B51" t="s">
         <v>89</v>
       </c>
@@ -42123,7 +42123,7 @@
       <c r="L51" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="52" s="98" spans="1:26">
-      <c r="A52" s="102" t="n">
+      <c r="A52" s="101" t="n">
         <v>42867</v>
       </c>
       <c r="B52" t="s">
@@ -42187,7 +42187,7 @@
       <c r="L55" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="56" s="98" spans="1:26">
-      <c r="A56" s="100" t="n">
+      <c r="A56" s="103" t="n">
         <v>42869</v>
       </c>
       <c r="C56" s="44" t="n"/>
@@ -42202,7 +42202,7 @@
       <c r="L56" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="57" s="98" spans="1:26">
-      <c r="A57" s="100" t="n"/>
+      <c r="A57" s="103" t="n"/>
       <c r="C57" s="44" t="n"/>
       <c r="D57" s="44" t="n"/>
       <c r="E57" s="44" t="n"/>
@@ -42215,7 +42215,7 @@
       <c r="L57" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="58" s="98" spans="1:26">
-      <c r="A58" s="100" t="n">
+      <c r="A58" s="103" t="n">
         <v>42870</v>
       </c>
       <c r="B58" t="s">
@@ -42235,7 +42235,7 @@
       <c r="L58" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="59" s="98" spans="1:26">
-      <c r="A59" s="100" t="n"/>
+      <c r="A59" s="103" t="n"/>
       <c r="B59" t="s">
         <v>42</v>
       </c>
@@ -42253,7 +42253,7 @@
       <c r="L59" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="60" s="98" spans="1:26">
-      <c r="A60" s="100" t="n"/>
+      <c r="A60" s="103" t="n"/>
       <c r="B60" t="s">
         <v>43</v>
       </c>
@@ -42271,7 +42271,7 @@
       <c r="L60" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="61" s="98" spans="1:26">
-      <c r="A61" s="100" t="n"/>
+      <c r="A61" s="103" t="n"/>
       <c r="B61" t="s">
         <v>90</v>
       </c>
@@ -42338,7 +42338,7 @@
       <c r="L64" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="65" s="98" spans="1:26">
-      <c r="A65" s="100" t="n">
+      <c r="A65" s="103" t="n">
         <v>42872</v>
       </c>
       <c r="B65" t="s">
@@ -42358,7 +42358,7 @@
       <c r="L65" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="66" s="98" spans="1:26">
-      <c r="A66" s="100" t="n"/>
+      <c r="A66" s="103" t="n"/>
       <c r="B66" t="s">
         <v>59</v>
       </c>
@@ -42376,7 +42376,7 @@
       <c r="L66" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="67" s="98" spans="1:26">
-      <c r="A67" s="100" t="n">
+      <c r="A67" s="103" t="n">
         <v>42873</v>
       </c>
       <c r="B67" t="s">
@@ -42396,7 +42396,7 @@
       <c r="L67" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="68" s="98" spans="1:26">
-      <c r="A68" s="100" t="n"/>
+      <c r="A68" s="103" t="n"/>
       <c r="B68" t="s">
         <v>57</v>
       </c>
@@ -42429,7 +42429,7 @@
       <c r="L69" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="70" s="98" spans="1:26">
-      <c r="A70" s="100" t="n">
+      <c r="A70" s="103" t="n">
         <v>42874</v>
       </c>
       <c r="B70" s="41" t="s">
@@ -42508,7 +42508,7 @@
       <c r="L74" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="75" s="98" spans="1:26">
-      <c r="A75" s="102" t="n">
+      <c r="A75" s="101" t="n">
         <v>42877</v>
       </c>
       <c r="B75" s="45" t="s">
@@ -42528,7 +42528,7 @@
       <c r="L75" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="76" s="98" spans="1:26">
-      <c r="A76" s="102" t="n"/>
+      <c r="A76" s="101" t="n"/>
       <c r="B76" s="45" t="s">
         <v>92</v>
       </c>
@@ -42546,7 +42546,7 @@
       <c r="L76" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="77" s="98" spans="1:26">
-      <c r="A77" s="102" t="n"/>
+      <c r="A77" s="101" t="n"/>
       <c r="B77" s="45" t="s">
         <v>93</v>
       </c>
@@ -42564,7 +42564,7 @@
       <c r="L77" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="78" s="98" spans="1:26">
-      <c r="A78" s="100" t="n">
+      <c r="A78" s="103" t="n">
         <v>42878</v>
       </c>
       <c r="B78" t="s">
@@ -42584,7 +42584,7 @@
       <c r="L78" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="79" s="98" spans="1:26">
-      <c r="A79" s="100" t="n"/>
+      <c r="A79" s="103" t="n"/>
       <c r="B79" t="s">
         <v>68</v>
       </c>
@@ -42606,7 +42606,7 @@
       <c r="L79" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="80" s="98" spans="1:26">
-      <c r="A80" s="100" t="n">
+      <c r="A80" s="103" t="n">
         <v>42879</v>
       </c>
       <c r="B80" t="s">
@@ -42626,7 +42626,7 @@
       <c r="L80" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="81" s="98" spans="1:26">
-      <c r="A81" s="100" t="n"/>
+      <c r="A81" s="103" t="n"/>
       <c r="B81" t="s">
         <v>95</v>
       </c>
@@ -42714,7 +42714,7 @@
       <c r="L85" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="86" s="98" spans="1:26">
-      <c r="A86" s="100" t="n">
+      <c r="A86" s="103" t="n">
         <v>42881</v>
       </c>
       <c r="B86" t="s">
@@ -42734,7 +42734,7 @@
       <c r="L86" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="87" s="98" spans="1:26">
-      <c r="A87" s="100" t="n"/>
+      <c r="A87" s="103" t="n"/>
       <c r="C87" s="44" t="n"/>
       <c r="D87" s="44" t="n"/>
       <c r="E87" s="44" t="n"/>
@@ -42747,7 +42747,7 @@
       <c r="L87" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="88" s="98" spans="1:26">
-      <c r="A88" s="100" t="n">
+      <c r="A88" s="103" t="n">
         <v>42882</v>
       </c>
       <c r="B88" t="s">
@@ -42767,7 +42767,7 @@
       <c r="L88" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="89" s="98" spans="1:26">
-      <c r="A89" s="102" t="n">
+      <c r="A89" s="101" t="n">
         <v>42883</v>
       </c>
       <c r="C89" s="44" t="n"/>
@@ -42870,7 +42870,7 @@
       <c r="L95" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="96" s="98" spans="1:26">
-      <c r="A96" s="100" t="n">
+      <c r="A96" s="103" t="n">
         <v>42886</v>
       </c>
       <c r="B96" t="s">
@@ -42933,7 +42933,7 @@
   <dimension ref="A1:Z149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A21" ySplit="14"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A15" ySplit="14"/>
       <selection activeCell="B22" pane="bottomLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -43075,7 +43075,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="120">
-        <f>SUM(C19,C41,C46,C47,C54,C55,C61,C62,C70,C81,C91,C94,C96,)</f>
+        <f>SUM(C19,C36,C41,C46,C47,C55,C61,C62,C70,C81,C91,C94,C96,)</f>
         <v/>
       </c>
       <c r="D8" s="111" t="n"/>
@@ -43087,7 +43087,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="120">
-        <f>SUM(C22,C27,C33,C87,C90,C92,C98,)</f>
+        <f>SUM(C33,C38,C74,C90,C95,C98,)</f>
         <v/>
       </c>
       <c r="D9" s="111" t="n"/>
@@ -43099,7 +43099,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="120">
-        <f>SUM()</f>
+        <f>SUM(C40,)</f>
         <v/>
       </c>
       <c r="D10" s="111" t="n"/>
@@ -43147,7 +43147,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="120">
-        <f>SUM(C23,C26,C86,C93,C97,)</f>
+        <f>SUM(C26,C37,C65,)</f>
         <v/>
       </c>
       <c r="D14" s="111" t="n"/>
@@ -43215,7 +43215,7 @@
         <v>42523</v>
       </c>
       <c r="B22" s="127" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C22" s="126" t="n">
         <v>-1.5</v>
@@ -44636,22 +44636,22 @@
     <row r="149" spans="1:26"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A77:A80"/>
   </mergeCells>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
 </worksheet>
@@ -44910,7 +44910,7 @@
       <c r="F18" s="47" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="98" spans="1:26">
-      <c r="A19" s="99" t="n">
+      <c r="A19" s="100" t="n">
         <v>42552</v>
       </c>
       <c r="B19" t="s">
@@ -44948,7 +44948,7 @@
       <c r="Z19" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="20" s="98" spans="1:26">
-      <c r="A20" s="99" t="n"/>
+      <c r="A20" s="100" t="n"/>
       <c r="C20" s="48" t="n"/>
       <c r="D20" s="51" t="n"/>
       <c r="E20" s="51" t="n"/>
@@ -45008,7 +45008,7 @@
       <c r="L22" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="98" spans="1:26">
-      <c r="A23" s="101" t="n">
+      <c r="A23" s="99" t="n">
         <v>42554</v>
       </c>
       <c r="B23" s="45" t="s">
@@ -45035,7 +45035,7 @@
       <c r="O23" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="98" spans="1:26">
-      <c r="A24" s="101" t="n"/>
+      <c r="A24" s="99" t="n"/>
       <c r="B24" s="45" t="s">
         <v>131</v>
       </c>
@@ -45056,7 +45056,7 @@
       <c r="O24" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="98" spans="1:26">
-      <c r="A25" s="101" t="n"/>
+      <c r="A25" s="99" t="n"/>
       <c r="B25" s="45" t="s">
         <v>63</v>
       </c>
@@ -45077,7 +45077,7 @@
       <c r="O25" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="98" spans="1:26">
-      <c r="A26" s="101" t="n"/>
+      <c r="A26" s="99" t="n"/>
       <c r="B26" s="45" t="s">
         <v>59</v>
       </c>
@@ -45098,7 +45098,7 @@
       <c r="O26" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="98" spans="1:26">
-      <c r="A27" s="101" t="n"/>
+      <c r="A27" s="99" t="n"/>
       <c r="B27" s="45" t="s">
         <v>132</v>
       </c>
@@ -45155,7 +45155,7 @@
       <c r="L29" s="44" t="n"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="101" t="n">
+      <c r="A30" s="99" t="n">
         <v>42556</v>
       </c>
       <c r="B30" t="s">
@@ -45198,7 +45198,7 @@
       <c r="O31" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="32" s="98" spans="1:26">
-      <c r="A32" s="101" t="n"/>
+      <c r="A32" s="99" t="n"/>
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -45251,7 +45251,7 @@
       <c r="L34" s="44" t="n"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="103" t="n">
+      <c r="A35" s="102" t="n">
         <v>42558</v>
       </c>
       <c r="B35" t="s">
@@ -45375,7 +45375,7 @@
       <c r="L41" s="44" t="n"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="103" t="n">
+      <c r="A42" s="102" t="n">
         <v>42560</v>
       </c>
       <c r="C42" s="44" t="n"/>
@@ -45449,7 +45449,7 @@
       <c r="L45" s="44" t="n"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="103" t="n">
+      <c r="A46" s="102" t="n">
         <v>42562</v>
       </c>
       <c r="B46" t="s">
@@ -45541,7 +45541,7 @@
       <c r="U49" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="50" s="98" spans="1:26">
-      <c r="A50" s="102" t="n">
+      <c r="A50" s="101" t="n">
         <v>42563</v>
       </c>
       <c r="B50" s="41" t="s">
@@ -45561,7 +45561,7 @@
       <c r="L50" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="51" s="98" spans="1:26">
-      <c r="A51" s="102" t="n"/>
+      <c r="A51" s="101" t="n"/>
       <c r="B51" s="41" t="s">
         <v>63</v>
       </c>
@@ -45579,7 +45579,7 @@
       <c r="L51" s="44" t="n"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="99" t="n">
+      <c r="A52" s="100" t="n">
         <v>42564</v>
       </c>
       <c r="B52" s="41" t="n"/>
@@ -45673,7 +45673,7 @@
       <c r="L57" s="44" t="n"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="99" t="n">
+      <c r="A58" s="100" t="n">
         <v>42566</v>
       </c>
       <c r="B58" t="s">
@@ -45731,7 +45731,7 @@
       <c r="L60" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="61" s="98" spans="1:26">
-      <c r="A61" s="101" t="n">
+      <c r="A61" s="99" t="n">
         <v>42568</v>
       </c>
       <c r="B61" t="s">
@@ -45754,7 +45754,7 @@
       <c r="O61" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="62" s="98" spans="1:26">
-      <c r="A62" s="101" t="n"/>
+      <c r="A62" s="99" t="n"/>
       <c r="B62" t="s">
         <v>63</v>
       </c>
@@ -45790,7 +45790,7 @@
       <c r="L63" s="44" t="n"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="99" t="n">
+      <c r="A64" s="100" t="n">
         <v>42570</v>
       </c>
       <c r="B64" t="s">
@@ -45877,7 +45877,7 @@
       <c r="L67" s="44" t="n"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="103" t="n">
+      <c r="A68" s="102" t="n">
         <v>42572</v>
       </c>
       <c r="B68" t="s">
@@ -45920,7 +45920,7 @@
       <c r="O69" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="70" s="98" spans="1:26">
-      <c r="A70" s="103" t="n"/>
+      <c r="A70" s="102" t="n"/>
       <c r="B70" t="s">
         <v>143</v>
       </c>
@@ -45941,7 +45941,7 @@
       <c r="O70" s="55" t="n"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="102" t="n">
+      <c r="A71" s="101" t="n">
         <v>42573</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -45974,7 +45974,7 @@
       <c r="L72" s="44" t="n"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="99" t="n">
+      <c r="A73" s="100" t="n">
         <v>42574</v>
       </c>
       <c r="C73" s="44" t="n"/>
@@ -46022,7 +46022,7 @@
       <c r="O75" s="55" t="n"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="100" t="n">
+      <c r="A76" s="103" t="n">
         <v>42575</v>
       </c>
       <c r="C76" s="44" t="n"/>
@@ -46049,7 +46049,7 @@
       <c r="L77" s="44" t="n"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="99" t="n">
+      <c r="A78" s="100" t="n">
         <v>42576</v>
       </c>
       <c r="C78" s="44" t="n"/>
@@ -46144,7 +46144,7 @@
       <c r="L82" s="44" t="n"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="99" t="n">
+      <c r="A83" s="100" t="n">
         <v>42578</v>
       </c>
       <c r="C83" s="44" t="n"/>
@@ -46219,7 +46219,7 @@
       <c r="L87" s="44" t="n"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="99" t="n">
+      <c r="A88" s="100" t="n">
         <v>42580</v>
       </c>
       <c r="C88" s="44" t="n"/>
@@ -46397,6 +46397,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A82"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A28:A29"/>
@@ -46412,12 +46418,6 @@
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
 </worksheet>
@@ -46670,7 +46670,7 @@
       <c r="F18" s="47" t="n"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="99" t="n">
+      <c r="A19" s="100" t="n">
         <v>42583</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -46792,7 +46792,7 @@
       <c r="L22" s="44" t="n"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="99" t="n">
+      <c r="A23" s="100" t="n">
         <v>42585</v>
       </c>
       <c r="B23" s="54" t="s">
@@ -46909,7 +46909,7 @@
       <c r="L27" s="44" t="n"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="99" t="n">
+      <c r="A28" s="100" t="n">
         <v>42587</v>
       </c>
       <c r="B28" s="54" t="s">
@@ -47131,7 +47131,7 @@
       <c r="L37" s="44" t="n"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="103" t="n">
+      <c r="A38" s="102" t="n">
         <v>42589</v>
       </c>
       <c r="B38" s="54" t="s">
@@ -47232,7 +47232,7 @@
       <c r="L41" s="44" t="n"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="103" t="n">
+      <c r="A42" s="102" t="n">
         <v>42591</v>
       </c>
       <c r="B42" s="54" t="s">
@@ -47403,7 +47403,7 @@
       <c r="L48" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="49" s="98" spans="1:26">
-      <c r="A49" s="103" t="n">
+      <c r="A49" s="102" t="n">
         <v>42593</v>
       </c>
       <c r="B49" s="54" t="s">
@@ -47437,7 +47437,7 @@
       <c r="Z49" s="55" t="n"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="102" t="n">
+      <c r="A50" s="101" t="n">
         <v>42594</v>
       </c>
       <c r="B50" s="54" t="s">
@@ -47521,7 +47521,7 @@
       <c r="L53" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="54" s="98" spans="1:26">
-      <c r="A54" s="99" t="n">
+      <c r="A54" s="100" t="n">
         <v>42595</v>
       </c>
       <c r="B54" s="55" t="n"/>
@@ -47765,7 +47765,7 @@
       <c r="L64" s="44" t="n"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="99" t="n">
+      <c r="A65" s="100" t="n">
         <v>42570</v>
       </c>
       <c r="B65" s="54" t="s">
@@ -47861,7 +47861,7 @@
       <c r="Z67" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="68" s="98" spans="1:26">
-      <c r="A68" s="102" t="n">
+      <c r="A68" s="101" t="n">
         <v>42571</v>
       </c>
       <c r="B68" s="41" t="n"/>
@@ -47881,7 +47881,7 @@
       <c r="L68" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="69" s="98" spans="1:26">
-      <c r="A69" s="103" t="n">
+      <c r="A69" s="102" t="n">
         <v>42572</v>
       </c>
       <c r="B69" s="55" t="n"/>
@@ -47911,7 +47911,7 @@
       <c r="Z69" s="55" t="n"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="102" t="n">
+      <c r="A70" s="101" t="n">
         <v>42573</v>
       </c>
       <c r="B70" s="54" t="s">
@@ -47948,7 +47948,7 @@
       <c r="L71" s="44" t="n"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="99" t="n">
+      <c r="A72" s="100" t="n">
         <v>42574</v>
       </c>
       <c r="B72" s="54" t="s">
@@ -48083,7 +48083,7 @@
       <c r="L76" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="77" s="98" spans="1:26">
-      <c r="A77" s="99" t="n">
+      <c r="A77" s="100" t="n">
         <v>42576</v>
       </c>
       <c r="B77" s="54" t="s">
@@ -48137,7 +48137,7 @@
       <c r="L78" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="79" s="98" spans="1:26">
-      <c r="A79" s="101" t="n">
+      <c r="A79" s="99" t="n">
         <v>42578</v>
       </c>
       <c r="B79" s="66" t="s">
@@ -48185,7 +48185,7 @@
       <c r="L80" s="44" t="n"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="99" t="n">
+      <c r="A81" s="100" t="n">
         <v>42580</v>
       </c>
       <c r="B81" s="70" t="s">
@@ -48310,7 +48310,7 @@
       </c>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="99" t="n">
+      <c r="A87" s="100" t="n">
         <v>42582</v>
       </c>
       <c r="B87" s="54" t="s">
@@ -48407,6 +48407,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A70:A71"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A42:A44"/>
@@ -48417,17 +48428,6 @@
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
 </worksheet>
